--- a/Code/Results/Cases/Case_7_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_58/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9649034794045285</v>
+        <v>0.9649034794045274</v>
       </c>
       <c r="D2">
-        <v>0.9893134175211017</v>
+        <v>0.9893134175211007</v>
       </c>
       <c r="E2">
-        <v>0.9752551224014504</v>
+        <v>0.9752551224014498</v>
       </c>
       <c r="F2">
-        <v>0.9397947147329546</v>
+        <v>0.9397947147329531</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02964675266999</v>
+        <v>1.029646752669989</v>
       </c>
       <c r="J2">
-        <v>0.988187107319208</v>
+        <v>0.9881871073192071</v>
       </c>
       <c r="K2">
-        <v>1.000923668844998</v>
+        <v>1.000923668844997</v>
       </c>
       <c r="L2">
-        <v>0.9870703070483537</v>
+        <v>0.987070307048353</v>
       </c>
       <c r="M2">
-        <v>0.9521618053049827</v>
+        <v>0.9521618053049816</v>
       </c>
       <c r="N2">
-        <v>0.9895904463582468</v>
+        <v>0.9895904463582459</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.975075845773262</v>
+        <v>0.9750758457732627</v>
       </c>
       <c r="D3">
-        <v>0.9969817313645369</v>
+        <v>0.9969817313645373</v>
       </c>
       <c r="E3">
-        <v>0.9838240849367913</v>
+        <v>0.9838240849367921</v>
       </c>
       <c r="F3">
-        <v>0.953142543303748</v>
+        <v>0.9531425433037489</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,19 +480,19 @@
         <v>1.032444491274927</v>
       </c>
       <c r="J3">
-        <v>0.9962698252106823</v>
+        <v>0.996269825210683</v>
       </c>
       <c r="K3">
         <v>1.007653377733318</v>
       </c>
       <c r="L3">
-        <v>0.9946682109092405</v>
+        <v>0.9946682109092411</v>
       </c>
       <c r="M3">
-        <v>0.9644122880413425</v>
+        <v>0.964412288041343</v>
       </c>
       <c r="N3">
-        <v>0.9976846426362275</v>
+        <v>0.9976846426362279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9813719214429671</v>
+        <v>0.9813719214429663</v>
       </c>
       <c r="D4">
         <v>1.00173062582992</v>
       </c>
       <c r="E4">
-        <v>0.9891349284169402</v>
+        <v>0.9891349284169395</v>
       </c>
       <c r="F4">
-        <v>0.961385594061132</v>
+        <v>0.9613855940611312</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.034160096935411</v>
       </c>
       <c r="J4">
-        <v>1.0012644443204</v>
+        <v>1.001264444320399</v>
       </c>
       <c r="K4">
         <v>1.011808208503315</v>
       </c>
       <c r="L4">
-        <v>0.9993662785584978</v>
+        <v>0.9993662785584974</v>
       </c>
       <c r="M4">
-        <v>0.9719735400058261</v>
+        <v>0.9719735400058253</v>
       </c>
       <c r="N4">
-        <v>1.002686354677972</v>
+        <v>1.002686354677971</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9839559598791841</v>
+        <v>0.9839559598791815</v>
       </c>
       <c r="D5">
-        <v>1.003680082640866</v>
+        <v>1.003680082640864</v>
       </c>
       <c r="E5">
-        <v>0.991316155958101</v>
+        <v>0.9913161559580985</v>
       </c>
       <c r="F5">
-        <v>0.9647652205772294</v>
+        <v>0.9647652205772264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034860269996324</v>
+        <v>1.034860269996323</v>
       </c>
       <c r="J5">
-        <v>1.003312346235528</v>
+        <v>1.003312346235525</v>
       </c>
       <c r="K5">
-        <v>1.013510803512582</v>
+        <v>1.01351080351258</v>
       </c>
       <c r="L5">
-        <v>1.001293266431443</v>
+        <v>1.001293266431441</v>
       </c>
       <c r="M5">
-        <v>0.9750725395693061</v>
+        <v>0.9750725395693031</v>
       </c>
       <c r="N5">
-        <v>1.004737164848717</v>
+        <v>1.004737164848714</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,34 +585,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9843862974032155</v>
+        <v>0.9843862974032147</v>
       </c>
       <c r="D6">
-        <v>1.004004757077735</v>
+        <v>1.004004757077734</v>
       </c>
       <c r="E6">
-        <v>0.99167949708696</v>
+        <v>0.9916794970869595</v>
       </c>
       <c r="F6">
-        <v>0.9653278719506998</v>
+        <v>0.9653278719506985</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034976639494151</v>
+        <v>1.03497663949415</v>
       </c>
       <c r="J6">
-        <v>1.003653278622063</v>
+        <v>1.003653278622062</v>
       </c>
       <c r="K6">
-        <v>1.013794189868574</v>
+        <v>1.013794189868573</v>
       </c>
       <c r="L6">
         <v>1.001614107807498</v>
       </c>
       <c r="M6">
-        <v>0.9755884043374853</v>
+        <v>0.9755884043374842</v>
       </c>
       <c r="N6">
         <v>1.005078581398346</v>
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9814066894571367</v>
+        <v>0.9814066894571376</v>
       </c>
       <c r="D7">
         <v>1.001756854248304</v>
       </c>
       <c r="E7">
-        <v>0.9891642707146894</v>
+        <v>0.98916427071469</v>
       </c>
       <c r="F7">
-        <v>0.9614310793627628</v>
+        <v>0.9614310793627646</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034169533497411</v>
+        <v>1.034169533497412</v>
       </c>
       <c r="J7">
-        <v>1.001292006636109</v>
+        <v>1.00129200663611</v>
       </c>
       <c r="K7">
-        <v>1.011831127379822</v>
+        <v>1.011831127379823</v>
       </c>
       <c r="L7">
-        <v>0.9993922108820791</v>
+        <v>0.9993922108820799</v>
       </c>
       <c r="M7">
-        <v>0.9720152528968062</v>
+        <v>0.9720152528968079</v>
       </c>
       <c r="N7">
-        <v>1.002713956135331</v>
+        <v>1.002713956135332</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9684041932960671</v>
+        <v>0.9684041932960664</v>
       </c>
       <c r="D8">
-        <v>0.9919516671755548</v>
+        <v>0.9919516671755545</v>
       </c>
       <c r="E8">
-        <v>0.9782023972574899</v>
+        <v>0.9782023972574897</v>
       </c>
       <c r="F8">
-        <v>0.9443927933003446</v>
+        <v>0.9443927933003436</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -685,19 +685,19 @@
         <v>1.030612914462828</v>
       </c>
       <c r="J8">
-        <v>0.9909703826361912</v>
+        <v>0.9909703826361906</v>
       </c>
       <c r="K8">
-        <v>1.003241773332688</v>
+        <v>1.003241773332687</v>
       </c>
       <c r="L8">
-        <v>0.9896859567903294</v>
+        <v>0.9896859567903291</v>
       </c>
       <c r="M8">
-        <v>0.9563826799926609</v>
+        <v>0.9563826799926599</v>
       </c>
       <c r="N8">
-        <v>0.992377674245426</v>
+        <v>0.9923776742454254</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9429949679665821</v>
+        <v>0.9429949679665834</v>
       </c>
       <c r="D9">
-        <v>0.972825926125385</v>
+        <v>0.9728259261253863</v>
       </c>
       <c r="E9">
-        <v>0.9568510350153436</v>
+        <v>0.956851035015345</v>
       </c>
       <c r="F9">
-        <v>0.9108854942975481</v>
+        <v>0.9108854942975492</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.023533679476414</v>
       </c>
       <c r="J9">
-        <v>0.9707347780014801</v>
+        <v>0.9707347780014814</v>
       </c>
       <c r="K9">
-        <v>0.9863758268683502</v>
+        <v>0.9863758268683517</v>
       </c>
       <c r="L9">
-        <v>0.9706852466196517</v>
+        <v>0.9706852466196529</v>
       </c>
       <c r="M9">
-        <v>0.9256112615366173</v>
+        <v>0.9256112615366184</v>
       </c>
       <c r="N9">
-        <v>0.9721133327310776</v>
+        <v>0.972113332731079</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9238390728890858</v>
+        <v>0.923839072889086</v>
       </c>
       <c r="D10">
         <v>0.9584540643312737</v>
       </c>
       <c r="E10">
-        <v>0.9408202492438311</v>
+        <v>0.9408202492438315</v>
       </c>
       <c r="F10">
-        <v>0.8853704571490917</v>
+        <v>0.8853704571490919</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.01811646194116</v>
       </c>
       <c r="J10">
-        <v>0.9554380030142565</v>
+        <v>0.9554380030142566</v>
       </c>
       <c r="K10">
         <v>0.9736162696658129</v>
       </c>
       <c r="L10">
-        <v>0.9563470595657748</v>
+        <v>0.9563470595657749</v>
       </c>
       <c r="M10">
-        <v>0.9021716134125928</v>
+        <v>0.9021716134125932</v>
       </c>
       <c r="N10">
-        <v>0.9567948345688075</v>
+        <v>0.9567948345688074</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9148526518206073</v>
+        <v>0.9148526518206077</v>
       </c>
       <c r="D11">
-        <v>0.9517296746761571</v>
+        <v>0.9517296746761574</v>
       </c>
       <c r="E11">
-        <v>0.9333206914473157</v>
+        <v>0.9333206914473159</v>
       </c>
       <c r="F11">
-        <v>0.8733048366568461</v>
+        <v>0.8733048366568468</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -808,19 +808,19 @@
         <v>1.015558545712539</v>
       </c>
       <c r="J11">
-        <v>0.9482530829274692</v>
+        <v>0.9482530829274698</v>
       </c>
       <c r="K11">
-        <v>0.9676231622576305</v>
+        <v>0.9676231622576308</v>
       </c>
       <c r="L11">
-        <v>0.9496200481823307</v>
+        <v>0.9496200481823309</v>
       </c>
       <c r="M11">
-        <v>0.891089487396815</v>
+        <v>0.8910894873968158</v>
       </c>
       <c r="N11">
-        <v>0.9495997110713752</v>
+        <v>0.949599711071376</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9113916054472311</v>
+        <v>0.9113916054472325</v>
       </c>
       <c r="D12">
-        <v>0.9491432027946539</v>
+        <v>0.949143202794655</v>
       </c>
       <c r="E12">
-        <v>0.9304359747958584</v>
+        <v>0.9304359747958598</v>
       </c>
       <c r="F12">
-        <v>0.8686391963525608</v>
+        <v>0.8686391963525627</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014571162439905</v>
+        <v>1.014571162439906</v>
       </c>
       <c r="J12">
-        <v>0.9454846162884272</v>
+        <v>0.9454846162884286</v>
       </c>
       <c r="K12">
-        <v>0.9653142052939228</v>
+        <v>0.9653142052939241</v>
       </c>
       <c r="L12">
-        <v>0.9470293624055306</v>
+        <v>0.947029362405532</v>
       </c>
       <c r="M12">
-        <v>0.886804944719936</v>
+        <v>0.8868049447199376</v>
       </c>
       <c r="N12">
-        <v>0.9468273128921582</v>
+        <v>0.9468273128921595</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9121399503209674</v>
+        <v>0.9121399503209688</v>
       </c>
       <c r="D13">
-        <v>0.9497022831367259</v>
+        <v>0.949702283136727</v>
       </c>
       <c r="E13">
-        <v>0.9310595305358755</v>
+        <v>0.9310595305358769</v>
       </c>
       <c r="F13">
-        <v>0.8696489203443818</v>
+        <v>0.8696489203443829</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014784748846568</v>
+        <v>1.014784748846569</v>
       </c>
       <c r="J13">
-        <v>0.946083267224496</v>
+        <v>0.9460832672244972</v>
       </c>
       <c r="K13">
-        <v>0.9658134743158429</v>
+        <v>0.9658134743158442</v>
       </c>
       <c r="L13">
-        <v>0.9475895061930312</v>
+        <v>0.9475895061930324</v>
       </c>
       <c r="M13">
-        <v>0.8877321477656719</v>
+        <v>0.8877321477656731</v>
       </c>
       <c r="N13">
-        <v>0.9474268139812223</v>
+        <v>0.9474268139812234</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9145692022701943</v>
+        <v>0.9145692022701918</v>
       </c>
       <c r="D14">
-        <v>0.9515177776730043</v>
+        <v>0.9515177776730021</v>
       </c>
       <c r="E14">
-        <v>0.9330843639362455</v>
+        <v>0.9330843639362432</v>
       </c>
       <c r="F14">
-        <v>0.8729231397191847</v>
+        <v>0.8729231397191815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015477724987272</v>
+        <v>1.015477724987271</v>
       </c>
       <c r="J14">
-        <v>0.9480263784360611</v>
+        <v>0.9480263784360587</v>
       </c>
       <c r="K14">
-        <v>0.9674340786014455</v>
+        <v>0.9674340786014434</v>
       </c>
       <c r="L14">
-        <v>0.9494078735269212</v>
+        <v>0.9494078735269191</v>
       </c>
       <c r="M14">
-        <v>0.8907389489179908</v>
+        <v>0.8907389489179877</v>
       </c>
       <c r="N14">
-        <v>0.949372684633586</v>
+        <v>0.9493726846335834</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9160489675247863</v>
+        <v>0.9160489675247859</v>
       </c>
       <c r="D15">
-        <v>0.9526241391663304</v>
+        <v>0.9526241391663297</v>
       </c>
       <c r="E15">
-        <v>0.934318277644217</v>
+        <v>0.9343182776442167</v>
       </c>
       <c r="F15">
-        <v>0.8749150298371708</v>
+        <v>0.8749150298371701</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.015899566457533</v>
       </c>
       <c r="J15">
-        <v>0.9492098526404098</v>
+        <v>0.9492098526404095</v>
       </c>
       <c r="K15">
-        <v>0.968421172581632</v>
+        <v>0.9684211725816312</v>
       </c>
       <c r="L15">
-        <v>0.9505155524182107</v>
+        <v>0.9505155524182104</v>
       </c>
       <c r="M15">
-        <v>0.8925682733226374</v>
+        <v>0.8925682733226367</v>
       </c>
       <c r="N15">
-        <v>0.9505578395070512</v>
+        <v>0.9505578395070505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9244193805832284</v>
+        <v>0.9244193805832269</v>
       </c>
       <c r="D16">
-        <v>0.9588887154202745</v>
+        <v>0.9588887154202733</v>
       </c>
       <c r="E16">
-        <v>0.9413050079236784</v>
+        <v>0.9413050079236769</v>
       </c>
       <c r="F16">
-        <v>0.8861473298429384</v>
+        <v>0.8861473298429366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018281325353923</v>
+        <v>1.018281325353922</v>
       </c>
       <c r="J16">
-        <v>0.9559018026160017</v>
+        <v>0.9559018026160001</v>
       </c>
       <c r="K16">
-        <v>0.9740031583344884</v>
+        <v>0.9740031583344874</v>
       </c>
       <c r="L16">
-        <v>0.9567814709076424</v>
+        <v>0.956781470907641</v>
       </c>
       <c r="M16">
-        <v>0.9028852399841787</v>
+        <v>0.9028852399841768</v>
       </c>
       <c r="N16">
-        <v>0.9572592928191853</v>
+        <v>0.9572592928191839</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9294727593648521</v>
+        <v>0.92947275936485</v>
       </c>
       <c r="D17">
-        <v>0.9626757308448379</v>
+        <v>0.9626757308448363</v>
       </c>
       <c r="E17">
-        <v>0.9455286895015809</v>
+        <v>0.9455286895015791</v>
       </c>
       <c r="F17">
-        <v>0.8929014431771688</v>
+        <v>0.8929014431771666</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.019715164863576</v>
       </c>
       <c r="J17">
-        <v>0.9599396439798962</v>
+        <v>0.9599396439798943</v>
       </c>
       <c r="K17">
-        <v>0.9773714466048268</v>
+        <v>0.977371446604825</v>
       </c>
       <c r="L17">
-        <v>0.960564321328671</v>
+        <v>0.9605643213286694</v>
       </c>
       <c r="M17">
-        <v>0.9090897620911254</v>
+        <v>0.9090897620911231</v>
       </c>
       <c r="N17">
-        <v>0.9613028683809638</v>
+        <v>0.9613028683809617</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9323550910028793</v>
+        <v>0.9323550910028779</v>
       </c>
       <c r="D18">
-        <v>0.964837336995465</v>
+        <v>0.964837336995464</v>
       </c>
       <c r="E18">
-        <v>0.9479396529250302</v>
+        <v>0.9479396529250287</v>
       </c>
       <c r="F18">
-        <v>0.89674533666442</v>
+        <v>0.8967453366644186</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.020531451072311</v>
       </c>
       <c r="J18">
-        <v>0.9622419143907774</v>
+        <v>0.9622419143907761</v>
       </c>
       <c r="K18">
-        <v>0.9792919427710365</v>
+        <v>0.9792919427710355</v>
       </c>
       <c r="L18">
-        <v>0.9627218916021959</v>
+        <v>0.9627218916021946</v>
       </c>
       <c r="M18">
-        <v>0.9126210268918447</v>
+        <v>0.9126210268918433</v>
       </c>
       <c r="N18">
-        <v>0.9636084082799026</v>
+        <v>0.9636084082799012</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9333273285961221</v>
+        <v>0.9333273285961236</v>
       </c>
       <c r="D19">
-        <v>0.9655667169203702</v>
+        <v>0.9655667169203714</v>
       </c>
       <c r="E19">
-        <v>0.9487531971028956</v>
+        <v>0.9487531971028964</v>
       </c>
       <c r="F19">
-        <v>0.8980405793332182</v>
+        <v>0.8980405793332197</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020806523337156</v>
+        <v>1.020806523337157</v>
       </c>
       <c r="J19">
-        <v>0.9630183500442552</v>
+        <v>0.9630183500442565</v>
       </c>
       <c r="K19">
-        <v>0.9799396168332952</v>
+        <v>0.9799396168332964</v>
       </c>
       <c r="L19">
-        <v>0.9634496395883932</v>
+        <v>0.9634496395883944</v>
       </c>
       <c r="M19">
-        <v>0.9138109404435657</v>
+        <v>0.9138109404435671</v>
       </c>
       <c r="N19">
-        <v>0.9643859465610666</v>
+        <v>0.9643859465610678</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9289374472512553</v>
+        <v>0.9289374472512525</v>
       </c>
       <c r="D20">
-        <v>0.9622743973596427</v>
+        <v>0.9622743973596404</v>
       </c>
       <c r="E20">
-        <v>0.9450810697330081</v>
+        <v>0.9450810697330059</v>
       </c>
       <c r="F20">
-        <v>0.8921868816185987</v>
+        <v>0.8921868816185957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019563435321014</v>
+        <v>1.019563435321013</v>
       </c>
       <c r="J20">
-        <v>0.9595119944589288</v>
+        <v>0.9595119944589261</v>
       </c>
       <c r="K20">
-        <v>0.9770147093796429</v>
+        <v>0.9770147093796404</v>
       </c>
       <c r="L20">
-        <v>0.9601636049594824</v>
+        <v>0.9601636049594799</v>
       </c>
       <c r="M20">
-        <v>0.9084333264212983</v>
+        <v>0.9084333264212953</v>
       </c>
       <c r="N20">
-        <v>0.9608746115486245</v>
+        <v>0.960874611548622</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138574276378554</v>
+        <v>0.9138574276378543</v>
       </c>
       <c r="D21">
-        <v>0.9509857363977663</v>
+        <v>0.9509857363977657</v>
       </c>
       <c r="E21">
-        <v>0.932490979119532</v>
+        <v>0.9324909791195312</v>
       </c>
       <c r="F21">
-        <v>0.8719643389775268</v>
+        <v>0.871964338977526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015274740224966</v>
+        <v>1.015274740224965</v>
       </c>
       <c r="J21">
-        <v>0.9474570774248771</v>
+        <v>0.9474570774248763</v>
       </c>
       <c r="K21">
-        <v>0.966959256751185</v>
+        <v>0.9669592567511843</v>
       </c>
       <c r="L21">
-        <v>0.9488750820853724</v>
+        <v>0.9488750820853717</v>
       </c>
       <c r="M21">
-        <v>0.8898584309809986</v>
+        <v>0.8898584309809975</v>
       </c>
       <c r="N21">
-        <v>0.9488025751496663</v>
+        <v>0.9488025751496654</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9036498254289052</v>
+        <v>0.9036498254289054</v>
       </c>
       <c r="D22">
-        <v>0.9433649102534947</v>
+        <v>0.9433649102534949</v>
       </c>
       <c r="E22">
-        <v>0.9239909194832988</v>
+        <v>0.9239909194832991</v>
       </c>
       <c r="F22">
-        <v>0.8581621132950944</v>
+        <v>0.8581621132950942</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,16 +1259,16 @@
         <v>1.012358769280172</v>
       </c>
       <c r="J22">
-        <v>0.9392897752473776</v>
+        <v>0.9392897752473778</v>
       </c>
       <c r="K22">
-        <v>0.960148484639978</v>
+        <v>0.9601484846399785</v>
       </c>
       <c r="L22">
-        <v>0.9412350913551462</v>
+        <v>0.9412350913551466</v>
       </c>
       <c r="M22">
-        <v>0.8771858138345553</v>
+        <v>0.8771858138345551</v>
       </c>
       <c r="N22">
         <v>0.940623674466272</v>
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9091378808228366</v>
+        <v>0.9091378808228374</v>
       </c>
       <c r="D23">
-        <v>0.9474600277013978</v>
+        <v>0.9474600277013985</v>
       </c>
       <c r="E23">
-        <v>0.928558655510472</v>
+        <v>0.9285586555104722</v>
       </c>
       <c r="F23">
-        <v>0.8655951510342412</v>
+        <v>0.8655951510342423</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,19 +1300,19 @@
         <v>1.01392762095542</v>
       </c>
       <c r="J23">
-        <v>0.9436815339450266</v>
+        <v>0.9436815339450272</v>
       </c>
       <c r="K23">
-        <v>0.9638105191779885</v>
+        <v>0.9638105191779891</v>
       </c>
       <c r="L23">
-        <v>0.9453424746484888</v>
+        <v>0.9453424746484892</v>
       </c>
       <c r="M23">
-        <v>0.8840098402422458</v>
+        <v>0.8840098402422469</v>
       </c>
       <c r="N23">
-        <v>0.9450216699650134</v>
+        <v>0.9450216699650137</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9291795319111427</v>
+        <v>0.9291795319111416</v>
       </c>
       <c r="D24">
-        <v>0.9624558878724484</v>
+        <v>0.9624558878724478</v>
       </c>
       <c r="E24">
-        <v>0.9452834914071829</v>
+        <v>0.9452834914071818</v>
       </c>
       <c r="F24">
-        <v>0.8925100546259952</v>
+        <v>0.8925100546259936</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.019632056935348</v>
       </c>
       <c r="J24">
-        <v>0.9597053933413598</v>
+        <v>0.9597053933413587</v>
       </c>
       <c r="K24">
-        <v>0.9771760391660561</v>
+        <v>0.9771760391660554</v>
       </c>
       <c r="L24">
-        <v>0.9603448215414671</v>
+        <v>0.9603448215414662</v>
       </c>
       <c r="M24">
-        <v>0.9087302105270108</v>
+        <v>0.9087302105270093</v>
       </c>
       <c r="N24">
-        <v>0.9610682850796517</v>
+        <v>0.9610682850796506</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9499082383195352</v>
+        <v>0.9499082383195343</v>
       </c>
       <c r="D25">
-        <v>0.9780235810679125</v>
+        <v>0.9780235810679121</v>
       </c>
       <c r="E25">
-        <v>0.9626506952209176</v>
+        <v>0.9626506952209166</v>
       </c>
       <c r="F25">
-        <v>0.9200352855721964</v>
+        <v>0.9200352855721955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025473762842373</v>
+        <v>1.025473762842372</v>
       </c>
       <c r="J25">
-        <v>0.9762475433405983</v>
+        <v>0.9762475433405974</v>
       </c>
       <c r="K25">
-        <v>0.9909729099382973</v>
+        <v>0.9909729099382968</v>
       </c>
       <c r="L25">
-        <v>0.9758578716799818</v>
+        <v>0.9758578716799809</v>
       </c>
       <c r="M25">
-        <v>0.9340162576350779</v>
+        <v>0.934016257635077</v>
       </c>
       <c r="N25">
-        <v>0.9776339268293004</v>
+        <v>0.9776339268292992</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9649034794045274</v>
+        <v>0.9854337332811116</v>
       </c>
       <c r="D2">
-        <v>0.9893134175211007</v>
+        <v>1.005697239533642</v>
       </c>
       <c r="E2">
-        <v>0.9752551224014498</v>
+        <v>0.993706484612959</v>
       </c>
       <c r="F2">
-        <v>0.9397947147329531</v>
+        <v>1.010312117149747</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029646752669989</v>
+        <v>1.037006179276927</v>
       </c>
       <c r="J2">
-        <v>0.9881871073192071</v>
+        <v>1.008059022295108</v>
       </c>
       <c r="K2">
-        <v>1.000923668844997</v>
+        <v>1.017077769310592</v>
       </c>
       <c r="L2">
-        <v>0.987070307048353</v>
+        <v>1.005254200064775</v>
       </c>
       <c r="M2">
-        <v>0.9521618053049816</v>
+        <v>1.021629633167935</v>
       </c>
       <c r="N2">
-        <v>0.9895904463582459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.00621939801614</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.025690638828761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9750758457732627</v>
+        <v>0.9905410671589097</v>
       </c>
       <c r="D3">
-        <v>0.9969817313645373</v>
+        <v>1.009236836206162</v>
       </c>
       <c r="E3">
-        <v>0.9838240849367921</v>
+        <v>0.997827538212769</v>
       </c>
       <c r="F3">
-        <v>0.9531425433037489</v>
+        <v>1.013938048235959</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032444491274927</v>
+        <v>1.03803561497791</v>
       </c>
       <c r="J3">
-        <v>0.996269825210683</v>
+        <v>1.011292956222966</v>
       </c>
       <c r="K3">
-        <v>1.007653377733318</v>
+        <v>1.019752878600962</v>
       </c>
       <c r="L3">
-        <v>0.9946682109092411</v>
+        <v>1.008488291770353</v>
       </c>
       <c r="M3">
-        <v>0.964412288041343</v>
+        <v>1.024395641986398</v>
       </c>
       <c r="N3">
-        <v>0.9976846426362279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.007352965122649</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.027879792073138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9813719214429663</v>
+        <v>0.9937662367646569</v>
       </c>
       <c r="D4">
-        <v>1.00173062582992</v>
+        <v>1.011473358017788</v>
       </c>
       <c r="E4">
-        <v>0.9891349284169395</v>
+        <v>1.00043577698416</v>
       </c>
       <c r="F4">
-        <v>0.9613855940611312</v>
+        <v>1.016239302729912</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034160096935411</v>
+        <v>1.038673255102039</v>
       </c>
       <c r="J4">
-        <v>1.001264444320399</v>
+        <v>1.01333075830768</v>
       </c>
       <c r="K4">
-        <v>1.011808208503315</v>
+        <v>1.021435254169128</v>
       </c>
       <c r="L4">
-        <v>0.9993662785584974</v>
+        <v>1.010528945405613</v>
       </c>
       <c r="M4">
-        <v>0.9719735400058253</v>
+        <v>1.026145606233745</v>
       </c>
       <c r="N4">
-        <v>1.002686354677971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008066411176825</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.029264794870469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9839559598791815</v>
+        <v>0.9951037824050555</v>
       </c>
       <c r="D5">
-        <v>1.003680082640864</v>
+        <v>1.012401130478098</v>
       </c>
       <c r="E5">
-        <v>0.9913161559580985</v>
+        <v>1.001518822545173</v>
       </c>
       <c r="F5">
-        <v>0.9647652205772264</v>
+        <v>1.01719638439518</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034860269996323</v>
+        <v>1.038934657917165</v>
       </c>
       <c r="J5">
-        <v>1.003312346235525</v>
+        <v>1.014174781036496</v>
       </c>
       <c r="K5">
-        <v>1.01351080351258</v>
+        <v>1.022131247861179</v>
       </c>
       <c r="L5">
-        <v>1.001293266431441</v>
+        <v>1.011374810248565</v>
       </c>
       <c r="M5">
-        <v>0.9750725395693031</v>
+        <v>1.026872090987907</v>
       </c>
       <c r="N5">
-        <v>1.004737164848714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.008361695498626</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.029839767754204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9843862974032147</v>
+        <v>0.9953273090111848</v>
       </c>
       <c r="D6">
-        <v>1.004004757077734</v>
+        <v>1.012556188781158</v>
       </c>
       <c r="E6">
-        <v>0.9916794970869595</v>
+        <v>1.001699895862311</v>
       </c>
       <c r="F6">
-        <v>0.9653278719506985</v>
+        <v>1.017356485980386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03497663949415</v>
+        <v>1.038978162341246</v>
       </c>
       <c r="J6">
-        <v>1.003653278622062</v>
+        <v>1.014315765633657</v>
       </c>
       <c r="K6">
-        <v>1.013794189868573</v>
+        <v>1.022247456995717</v>
       </c>
       <c r="L6">
-        <v>1.001614107807498</v>
+        <v>1.011516141455796</v>
       </c>
       <c r="M6">
-        <v>0.9755884043374842</v>
+        <v>1.026993540869171</v>
       </c>
       <c r="N6">
-        <v>1.005078581398346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.00841100668198</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.029935888635249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9814066894571376</v>
+        <v>0.9937841801289392</v>
       </c>
       <c r="D7">
-        <v>1.001756854248304</v>
+        <v>1.011485803375306</v>
       </c>
       <c r="E7">
-        <v>0.98916427071469</v>
+        <v>1.000450300914128</v>
       </c>
       <c r="F7">
-        <v>0.9614310793627646</v>
+        <v>1.016252131518838</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034169533497412</v>
+        <v>1.038676773953098</v>
       </c>
       <c r="J7">
-        <v>1.00129200663611</v>
+        <v>1.013342085394438</v>
       </c>
       <c r="K7">
-        <v>1.011831127379823</v>
+        <v>1.021444597922709</v>
       </c>
       <c r="L7">
-        <v>0.9993922108820799</v>
+        <v>1.010540294597946</v>
       </c>
       <c r="M7">
-        <v>0.9720152528968079</v>
+        <v>1.026155349278802</v>
       </c>
       <c r="N7">
-        <v>1.002713956135332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008070374851588</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.029272505960036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9684041932960664</v>
+        <v>0.9871767284431421</v>
       </c>
       <c r="D8">
-        <v>0.9919516671755545</v>
+        <v>1.006904874081441</v>
       </c>
       <c r="E8">
-        <v>0.9782023972574897</v>
+        <v>0.9951116157267026</v>
       </c>
       <c r="F8">
-        <v>0.9443927933003436</v>
+        <v>1.01154707501455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030612914462828</v>
+        <v>1.037360074187949</v>
       </c>
       <c r="J8">
-        <v>0.9909703826361906</v>
+        <v>1.009163560507601</v>
       </c>
       <c r="K8">
-        <v>1.003241773332687</v>
+        <v>1.017992119787987</v>
       </c>
       <c r="L8">
-        <v>0.9896859567903291</v>
+        <v>1.0063582129908</v>
       </c>
       <c r="M8">
-        <v>0.9563826799926599</v>
+        <v>1.022572872954958</v>
       </c>
       <c r="N8">
-        <v>0.9923776742454254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.006606737087179</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.02643716523184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9429949679665834</v>
+        <v>0.9748879245263933</v>
       </c>
       <c r="D9">
-        <v>0.9728259261253863</v>
+        <v>0.9983999176831607</v>
       </c>
       <c r="E9">
-        <v>0.956851035015345</v>
+        <v>0.9852325927469271</v>
       </c>
       <c r="F9">
-        <v>0.9108854942975492</v>
+        <v>1.002892713732156</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023533679476414</v>
+        <v>1.034814312476618</v>
       </c>
       <c r="J9">
-        <v>0.9707347780014814</v>
+        <v>1.001359721274351</v>
       </c>
       <c r="K9">
-        <v>0.9863758268683517</v>
+        <v>1.011519008560772</v>
       </c>
       <c r="L9">
-        <v>0.9706852466196529</v>
+        <v>0.9985698925976191</v>
       </c>
       <c r="M9">
-        <v>0.9256112615366184</v>
+        <v>1.015939032372935</v>
       </c>
       <c r="N9">
-        <v>0.972113332731079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.003866817762463</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.021186799809325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.923839072889086</v>
+        <v>0.966395020091115</v>
       </c>
       <c r="D10">
-        <v>0.9584540643312737</v>
+        <v>0.9925546273312749</v>
       </c>
       <c r="E10">
-        <v>0.9408202492438315</v>
+        <v>0.9784603835048109</v>
       </c>
       <c r="F10">
-        <v>0.8853704571490919</v>
+        <v>0.9972214521802415</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01811646194116</v>
+        <v>1.033018613029751</v>
       </c>
       <c r="J10">
-        <v>0.9554380030142566</v>
+        <v>0.9960084261842339</v>
       </c>
       <c r="K10">
-        <v>0.9736162696658129</v>
+        <v>1.007059624197481</v>
       </c>
       <c r="L10">
-        <v>0.9563470595657749</v>
+        <v>0.9932297463610543</v>
       </c>
       <c r="M10">
-        <v>0.9021716134125932</v>
+        <v>1.011641056043918</v>
       </c>
       <c r="N10">
-        <v>0.9567948345688074</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001994548932296</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.017837896403652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9148526518206077</v>
+        <v>0.9641146794179891</v>
       </c>
       <c r="D11">
-        <v>0.9517296746761574</v>
+        <v>0.9911340321683064</v>
       </c>
       <c r="E11">
-        <v>0.9333206914473159</v>
+        <v>0.9768001730261985</v>
       </c>
       <c r="F11">
-        <v>0.8733048366568468</v>
+        <v>0.9976228113938667</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015558545712539</v>
+        <v>1.032726214357274</v>
       </c>
       <c r="J11">
-        <v>0.9482530829274698</v>
+        <v>0.995060469099902</v>
       </c>
       <c r="K11">
-        <v>0.9676231622576308</v>
+        <v>1.006225107147321</v>
       </c>
       <c r="L11">
-        <v>0.9496200481823309</v>
+        <v>0.9921732796788321</v>
       </c>
       <c r="M11">
-        <v>0.8910894873968158</v>
+        <v>1.012589697684209</v>
       </c>
       <c r="N11">
-        <v>0.949599711071376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.001753978317967</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.019034882410491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9113916054472325</v>
+        <v>0.9638130338711317</v>
       </c>
       <c r="D12">
-        <v>0.949143202794655</v>
+        <v>0.9910444758336796</v>
       </c>
       <c r="E12">
-        <v>0.9304359747958598</v>
+        <v>0.9766784778147566</v>
       </c>
       <c r="F12">
-        <v>0.8686391963525627</v>
+        <v>0.9987635334510292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014571162439906</v>
+        <v>1.032812155385298</v>
       </c>
       <c r="J12">
-        <v>0.9454846162884286</v>
+        <v>0.9952319707265297</v>
       </c>
       <c r="K12">
-        <v>0.9653142052939241</v>
+        <v>1.006345284560151</v>
       </c>
       <c r="L12">
-        <v>0.947029362405532</v>
+        <v>0.9922665487675041</v>
       </c>
       <c r="M12">
-        <v>0.8868049447199376</v>
+        <v>1.013914460609264</v>
       </c>
       <c r="N12">
-        <v>0.9468273128921595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.001891821440883</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.020415485275765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9121399503209688</v>
+        <v>0.9650044765599044</v>
       </c>
       <c r="D13">
-        <v>0.949702283136727</v>
+        <v>0.9919640715370086</v>
       </c>
       <c r="E13">
-        <v>0.9310595305358769</v>
+        <v>0.9777211784377738</v>
       </c>
       <c r="F13">
-        <v>0.8696489203443829</v>
+        <v>1.000564663404789</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014784748846569</v>
+        <v>1.033195445963163</v>
       </c>
       <c r="J13">
-        <v>0.9460832672244972</v>
+        <v>0.9962691254420034</v>
       </c>
       <c r="K13">
-        <v>0.9658134743158442</v>
+        <v>1.007202306279541</v>
       </c>
       <c r="L13">
-        <v>0.9475895061930324</v>
+        <v>0.9932425084543988</v>
       </c>
       <c r="M13">
-        <v>0.8877321477656731</v>
+        <v>1.015637055765081</v>
       </c>
       <c r="N13">
-        <v>0.9474268139812234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.002326723208827</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.022058633281949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9145692022701918</v>
+        <v>0.9664917516825299</v>
       </c>
       <c r="D14">
-        <v>0.9515177776730021</v>
+        <v>0.9930480673133035</v>
       </c>
       <c r="E14">
-        <v>0.9330843639362432</v>
+        <v>0.9789586932581107</v>
       </c>
       <c r="F14">
-        <v>0.8729231397191815</v>
+        <v>1.002090356396736</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015477724987271</v>
+        <v>1.033591070813447</v>
       </c>
       <c r="J14">
-        <v>0.9480263784360587</v>
+        <v>0.9973659048372701</v>
       </c>
       <c r="K14">
-        <v>0.9674340786014434</v>
+        <v>1.008119431366217</v>
       </c>
       <c r="L14">
-        <v>0.9494078735269191</v>
+        <v>0.9943061407180818</v>
       </c>
       <c r="M14">
-        <v>0.8907389489179877</v>
+        <v>1.016989876298422</v>
       </c>
       <c r="N14">
-        <v>0.9493726846335834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.002757937049491</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.023303610646798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9160489675247859</v>
+        <v>0.9671921518362644</v>
       </c>
       <c r="D15">
-        <v>0.9526241391663297</v>
+        <v>0.9935416730260622</v>
       </c>
       <c r="E15">
-        <v>0.9343182776442167</v>
+        <v>0.9795258194822228</v>
       </c>
       <c r="F15">
-        <v>0.8749150298371701</v>
+        <v>1.00265653568842</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015899566457533</v>
+        <v>1.03375650196996</v>
       </c>
       <c r="J15">
-        <v>0.9492098526404095</v>
+        <v>0.9978366706279345</v>
       </c>
       <c r="K15">
-        <v>0.9684211725816312</v>
+        <v>1.00851380901804</v>
       </c>
       <c r="L15">
-        <v>0.9505155524182104</v>
+        <v>0.9947703201596986</v>
       </c>
       <c r="M15">
-        <v>0.8925682733226367</v>
+        <v>1.01745687686554</v>
       </c>
       <c r="N15">
-        <v>0.9505578395070505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00293275381272</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.023710695050625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9244193805832269</v>
+        <v>0.9705227206767192</v>
       </c>
       <c r="D16">
-        <v>0.9588887154202733</v>
+        <v>0.9958077322455985</v>
       </c>
       <c r="E16">
-        <v>0.9413050079236769</v>
+        <v>0.9821527530233449</v>
       </c>
       <c r="F16">
-        <v>0.8861473298429366</v>
+        <v>1.004734341962501</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018281325353922</v>
+        <v>1.034443269902929</v>
       </c>
       <c r="J16">
-        <v>0.9559018026160001</v>
+        <v>0.9998760172290971</v>
       </c>
       <c r="K16">
-        <v>0.9740031583344874</v>
+        <v>1.010216192509235</v>
       </c>
       <c r="L16">
-        <v>0.956781470907641</v>
+        <v>0.9968142488699353</v>
       </c>
       <c r="M16">
-        <v>0.9028852399841768</v>
+        <v>1.018982211208761</v>
       </c>
       <c r="N16">
-        <v>0.9572592928191839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00363087433388</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.024877132905716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.92947275936485</v>
+        <v>0.9723108299748111</v>
       </c>
       <c r="D17">
-        <v>0.9626757308448363</v>
+        <v>0.996987983121154</v>
       </c>
       <c r="E17">
-        <v>0.9455286895015791</v>
+        <v>0.9835320890893411</v>
       </c>
       <c r="F17">
-        <v>0.8929014431771666</v>
+        <v>1.005537713734155</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019715164863576</v>
+        <v>1.034763827830813</v>
       </c>
       <c r="J17">
-        <v>0.9599396439798943</v>
+        <v>1.000876280509744</v>
       </c>
       <c r="K17">
-        <v>0.977371446604825</v>
+        <v>1.011049030818563</v>
       </c>
       <c r="L17">
-        <v>0.9605643213286694</v>
+        <v>0.9978351558469228</v>
       </c>
       <c r="M17">
-        <v>0.9090897620911231</v>
+        <v>1.019449338495361</v>
       </c>
       <c r="N17">
-        <v>0.9613028683809617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00394385661336</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.025115729570605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9323550910028779</v>
+        <v>0.9728898073599246</v>
       </c>
       <c r="D18">
-        <v>0.964837336995464</v>
+        <v>0.9973047140589393</v>
       </c>
       <c r="E18">
-        <v>0.9479396529250287</v>
+        <v>0.9839182464046256</v>
       </c>
       <c r="F18">
-        <v>0.8967453366644186</v>
+        <v>1.005141852112909</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020531451072311</v>
+        <v>1.034783684484053</v>
       </c>
       <c r="J18">
-        <v>0.9622419143907761</v>
+        <v>1.001017630971516</v>
       </c>
       <c r="K18">
-        <v>0.9792919427710355</v>
+        <v>1.011170134401182</v>
       </c>
       <c r="L18">
-        <v>0.9627218916021946</v>
+        <v>0.9980204684594106</v>
       </c>
       <c r="M18">
-        <v>0.9126210268918433</v>
+        <v>1.018872416844141</v>
       </c>
       <c r="N18">
-        <v>0.9636084082799012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.003933612629857</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.024418537854977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9333273285961236</v>
+        <v>0.9723344993440128</v>
       </c>
       <c r="D19">
-        <v>0.9655667169203714</v>
+        <v>0.9968156087282756</v>
       </c>
       <c r="E19">
-        <v>0.9487531971028964</v>
+        <v>0.9833720262440809</v>
       </c>
       <c r="F19">
-        <v>0.8980405793332197</v>
+        <v>1.003544170119093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020806523337157</v>
+        <v>1.034524682969448</v>
       </c>
       <c r="J19">
-        <v>0.9630183500442565</v>
+        <v>1.000344004082724</v>
       </c>
       <c r="K19">
-        <v>0.9799396168332964</v>
+        <v>1.010624696309474</v>
       </c>
       <c r="L19">
-        <v>0.9634496395883944</v>
+        <v>0.9974179663145037</v>
       </c>
       <c r="M19">
-        <v>0.9138109404435671</v>
+        <v>1.017237789107533</v>
       </c>
       <c r="N19">
-        <v>0.9643859465610678</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003623957288313</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.022794810508949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9289374472512525</v>
+        <v>0.9686119419295757</v>
       </c>
       <c r="D20">
-        <v>0.9622743973596404</v>
+        <v>0.9940796249268603</v>
       </c>
       <c r="E20">
-        <v>0.9450810697330059</v>
+        <v>0.9802258515175206</v>
       </c>
       <c r="F20">
-        <v>0.8921868816185957</v>
+        <v>0.9987076655244965</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019563435321013</v>
+        <v>1.033492578150708</v>
       </c>
       <c r="J20">
-        <v>0.9595119944589261</v>
+        <v>0.9974088410338715</v>
       </c>
       <c r="K20">
-        <v>0.9770147093796404</v>
+        <v>1.008227382013323</v>
       </c>
       <c r="L20">
-        <v>0.9601636049594799</v>
+        <v>0.9946255515358614</v>
       </c>
       <c r="M20">
-        <v>0.9084333264212953</v>
+        <v>1.012773277203621</v>
       </c>
       <c r="N20">
-        <v>0.960874611548622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.002485171662724</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.018723135773092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138574276378543</v>
+        <v>0.9618959576455496</v>
       </c>
       <c r="D21">
-        <v>0.9509857363977657</v>
+        <v>0.9894385684814042</v>
       </c>
       <c r="E21">
-        <v>0.9324909791195312</v>
+        <v>0.9748574536036917</v>
       </c>
       <c r="F21">
-        <v>0.871964338977526</v>
+        <v>0.9938701818613347</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015274740224965</v>
+        <v>1.03201461279021</v>
       </c>
       <c r="J21">
-        <v>0.9474570774248763</v>
+        <v>0.9930779365640579</v>
       </c>
       <c r="K21">
-        <v>0.9669592567511843</v>
+        <v>1.004622831546407</v>
       </c>
       <c r="L21">
-        <v>0.9488750820853717</v>
+        <v>0.9903313458652615</v>
       </c>
       <c r="M21">
-        <v>0.8898584309809975</v>
+        <v>1.008968623616721</v>
       </c>
       <c r="N21">
-        <v>0.9488025751496654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000952602915088</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.015670012618616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9036498254289054</v>
+        <v>0.9576446797936614</v>
       </c>
       <c r="D22">
-        <v>0.9433649102534949</v>
+        <v>0.9865146111371836</v>
       </c>
       <c r="E22">
-        <v>0.9239909194832991</v>
+        <v>0.9714777336283444</v>
       </c>
       <c r="F22">
-        <v>0.8581621132950942</v>
+        <v>0.9909448001050984</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012358769280172</v>
+        <v>1.031079138139606</v>
       </c>
       <c r="J22">
-        <v>0.9392897752473778</v>
+        <v>0.9903634062753012</v>
       </c>
       <c r="K22">
-        <v>0.9601484846399785</v>
+        <v>1.002358034864864</v>
       </c>
       <c r="L22">
-        <v>0.9412350913551466</v>
+        <v>0.9876362184149371</v>
       </c>
       <c r="M22">
-        <v>0.8771858138345551</v>
+        <v>1.006697802202214</v>
       </c>
       <c r="N22">
-        <v>0.940623674466272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.999996389814503</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.013872742431771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9091378808228374</v>
+        <v>0.9599102142193827</v>
       </c>
       <c r="D23">
-        <v>0.9474600277013985</v>
+        <v>0.988072244918455</v>
       </c>
       <c r="E23">
-        <v>0.9285586555104722</v>
+        <v>0.9732778735959191</v>
       </c>
       <c r="F23">
-        <v>0.8655951510342423</v>
+        <v>0.9925021301305066</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01392762095542</v>
+        <v>1.031578717309782</v>
       </c>
       <c r="J23">
-        <v>0.9436815339450272</v>
+        <v>0.9918102084801457</v>
       </c>
       <c r="K23">
-        <v>0.9638105191779891</v>
+        <v>1.003565367584905</v>
       </c>
       <c r="L23">
-        <v>0.9453424746484892</v>
+        <v>0.9890723775468031</v>
       </c>
       <c r="M23">
-        <v>0.8840098402422469</v>
+        <v>1.007907305519823</v>
       </c>
       <c r="N23">
-        <v>0.9450216699650137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.000506087433159</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.014830019667618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9291795319111416</v>
+        <v>0.968574409457911</v>
       </c>
       <c r="D24">
-        <v>0.9624558878724478</v>
+        <v>0.9940405952214941</v>
       </c>
       <c r="E24">
-        <v>0.9452834914071818</v>
+        <v>0.9801819374311029</v>
       </c>
       <c r="F24">
-        <v>0.8925100546259936</v>
+        <v>0.9984923980265682</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019632056935348</v>
+        <v>1.033465833315721</v>
       </c>
       <c r="J24">
-        <v>0.9597053933413587</v>
+        <v>0.9973382324106809</v>
       </c>
       <c r="K24">
-        <v>0.9771760391660554</v>
+        <v>1.008173179224115</v>
       </c>
       <c r="L24">
-        <v>0.9603448215414662</v>
+        <v>0.9945662544791164</v>
       </c>
       <c r="M24">
-        <v>0.9087302105270093</v>
+        <v>1.012546040672463</v>
       </c>
       <c r="N24">
-        <v>0.9610682850796506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.002452392960373</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.018501394416099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9499082383195343</v>
+        <v>0.9781467039177717</v>
       </c>
       <c r="D25">
-        <v>0.9780235810679121</v>
+        <v>1.000652969088496</v>
       </c>
       <c r="E25">
-        <v>0.9626506952209166</v>
+        <v>0.9878460864496822</v>
       </c>
       <c r="F25">
-        <v>0.9200352855721955</v>
+        <v>1.005175961180872</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025473762842372</v>
+        <v>1.035500295978014</v>
       </c>
       <c r="J25">
-        <v>0.9762475433405974</v>
+        <v>1.003432584029552</v>
       </c>
       <c r="K25">
-        <v>0.9909729099382968</v>
+        <v>1.013241157002739</v>
       </c>
       <c r="L25">
-        <v>0.9758578716799809</v>
+        <v>1.000636052621672</v>
       </c>
       <c r="M25">
-        <v>0.934016257635077</v>
+        <v>1.017694454898324</v>
       </c>
       <c r="N25">
-        <v>0.9776339268292992</v>
+        <v>1.004595284611381</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.022576136183208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9854337332811116</v>
+        <v>0.9875706041106465</v>
       </c>
       <c r="D2">
-        <v>1.005697239533642</v>
+        <v>1.007704961522879</v>
       </c>
       <c r="E2">
-        <v>0.993706484612959</v>
+        <v>0.9955783139505909</v>
       </c>
       <c r="F2">
-        <v>1.010312117149747</v>
+        <v>1.011237814578668</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.037006179276927</v>
+        <v>1.037862435814854</v>
       </c>
       <c r="J2">
-        <v>1.008059022295108</v>
+        <v>1.010129540059384</v>
       </c>
       <c r="K2">
-        <v>1.017077769310592</v>
+        <v>1.019057987590019</v>
       </c>
       <c r="L2">
-        <v>1.005254200064775</v>
+        <v>1.007099595553681</v>
       </c>
       <c r="M2">
-        <v>1.021629633167935</v>
+        <v>1.022542777798404</v>
       </c>
       <c r="N2">
-        <v>1.00621939801614</v>
+        <v>1.009617197216372</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.025690638828761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.02641334645595</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017169725316191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9905410671589097</v>
+        <v>0.9922886523988333</v>
       </c>
       <c r="D3">
-        <v>1.009236836206162</v>
+        <v>1.010820163493407</v>
       </c>
       <c r="E3">
-        <v>0.997827538212769</v>
+        <v>0.999360375714376</v>
       </c>
       <c r="F3">
-        <v>1.013938048235959</v>
+        <v>1.014694102124276</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.03803561497791</v>
+        <v>1.038713081855367</v>
       </c>
       <c r="J3">
-        <v>1.011292956222966</v>
+        <v>1.012991767035974</v>
       </c>
       <c r="K3">
-        <v>1.019752878600962</v>
+        <v>1.021316445242882</v>
       </c>
       <c r="L3">
-        <v>1.008488291770353</v>
+        <v>1.010001447200001</v>
       </c>
       <c r="M3">
-        <v>1.024395641986398</v>
+        <v>1.025142359026603</v>
       </c>
       <c r="N3">
-        <v>1.007352965122649</v>
+        <v>1.010414179659231</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.027879792073138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.028470778881166</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.017676298749664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937662367646569</v>
+        <v>0.995272377015789</v>
       </c>
       <c r="D4">
-        <v>1.011473358017788</v>
+        <v>1.012791711285312</v>
       </c>
       <c r="E4">
-        <v>1.00043577698416</v>
+        <v>1.001758017829309</v>
       </c>
       <c r="F4">
-        <v>1.016239302729912</v>
+        <v>1.016890346923312</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.038673255102039</v>
+        <v>1.03923898244762</v>
       </c>
       <c r="J4">
-        <v>1.01333075830768</v>
+        <v>1.014797793898808</v>
       </c>
       <c r="K4">
-        <v>1.021435254169128</v>
+        <v>1.02273816466904</v>
       </c>
       <c r="L4">
-        <v>1.010528945405613</v>
+        <v>1.011835271332592</v>
       </c>
       <c r="M4">
-        <v>1.026145606233745</v>
+        <v>1.026789106276741</v>
       </c>
       <c r="N4">
-        <v>1.008066411176825</v>
+        <v>1.010916566201787</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.029264794870469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.029774089925635</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.017992223541472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9951037824050555</v>
+        <v>0.9965107738379251</v>
       </c>
       <c r="D5">
-        <v>1.012401130478098</v>
+        <v>1.013610282059549</v>
       </c>
       <c r="E5">
-        <v>1.001518822545173</v>
+        <v>1.002754511687278</v>
       </c>
       <c r="F5">
-        <v>1.01719638439518</v>
+        <v>1.017804354448412</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.038934657917165</v>
+        <v>1.039454311359058</v>
       </c>
       <c r="J5">
-        <v>1.014174781036496</v>
+        <v>1.015546365318039</v>
       </c>
       <c r="K5">
-        <v>1.022131247861179</v>
+        <v>1.023326619577454</v>
       </c>
       <c r="L5">
-        <v>1.011374810248565</v>
+        <v>1.012596036717528</v>
       </c>
       <c r="M5">
-        <v>1.026872090987907</v>
+        <v>1.027473207644674</v>
       </c>
       <c r="N5">
-        <v>1.008361695498626</v>
+        <v>1.011124672862519</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.029839767754204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.030315518296291</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018122265116583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9953273090111848</v>
+        <v>0.9967177869423762</v>
       </c>
       <c r="D6">
-        <v>1.012556188781158</v>
+        <v>1.013747130374661</v>
       </c>
       <c r="E6">
-        <v>1.001699895862311</v>
+        <v>1.002921165765356</v>
       </c>
       <c r="F6">
-        <v>1.017356485980386</v>
+        <v>1.017957284676541</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.038978162341246</v>
+        <v>1.039490131404616</v>
       </c>
       <c r="J6">
-        <v>1.014315765633657</v>
+        <v>1.015671436788371</v>
       </c>
       <c r="K6">
-        <v>1.022247456995717</v>
+        <v>1.023424889372483</v>
       </c>
       <c r="L6">
-        <v>1.011516141455796</v>
+        <v>1.012723185161724</v>
       </c>
       <c r="M6">
-        <v>1.026993540869171</v>
+        <v>1.027587598629429</v>
       </c>
       <c r="N6">
-        <v>1.00841100668198</v>
+        <v>1.011159435850287</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.029935888635249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.030406052388455</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018143938916989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937841801289392</v>
+        <v>0.9953014613658707</v>
       </c>
       <c r="D7">
-        <v>1.011485803375306</v>
+        <v>1.01281241419945</v>
       </c>
       <c r="E7">
-        <v>1.000450300914128</v>
+        <v>1.001782830985756</v>
       </c>
       <c r="F7">
-        <v>1.016252131518838</v>
+        <v>1.016907988383437</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.038676773953098</v>
+        <v>1.039246327137755</v>
       </c>
       <c r="J7">
-        <v>1.013342085394438</v>
+        <v>1.014819989682497</v>
       </c>
       <c r="K7">
-        <v>1.021444597922709</v>
+        <v>1.022755675088787</v>
       </c>
       <c r="L7">
-        <v>1.010540294597946</v>
+        <v>1.011856792079012</v>
       </c>
       <c r="M7">
-        <v>1.026155349278802</v>
+        <v>1.026803609049552</v>
       </c>
       <c r="N7">
-        <v>1.008070374851588</v>
+        <v>1.010949325454587</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.029272505960036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.029785568072034</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.017996924545815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9871767284431421</v>
+        <v>0.9892186909817384</v>
       </c>
       <c r="D8">
-        <v>1.006904874081441</v>
+        <v>1.008797675061497</v>
       </c>
       <c r="E8">
-        <v>0.9951116157267026</v>
+        <v>0.9969028229692609</v>
       </c>
       <c r="F8">
-        <v>1.01154707501455</v>
+        <v>1.012431259832811</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.037360074187949</v>
+        <v>1.038169074480331</v>
       </c>
       <c r="J8">
-        <v>1.009163560507601</v>
+        <v>1.011144326538099</v>
       </c>
       <c r="K8">
-        <v>1.017992119787987</v>
+        <v>1.019859780510072</v>
       </c>
       <c r="L8">
-        <v>1.0063582129908</v>
+        <v>1.008124911575939</v>
       </c>
       <c r="M8">
-        <v>1.022572872954958</v>
+        <v>1.023445434101014</v>
       </c>
       <c r="N8">
-        <v>1.006606737087179</v>
+        <v>1.009980921019858</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.02643716523184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.027127752353935</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.017352748201449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9748879245263933</v>
+        <v>0.9779019426224975</v>
       </c>
       <c r="D9">
-        <v>0.9983999176831607</v>
+        <v>1.001338797355708</v>
       </c>
       <c r="E9">
-        <v>0.9852325927469271</v>
+        <v>0.9878680817821704</v>
       </c>
       <c r="F9">
-        <v>1.002892713732156</v>
+        <v>1.004201867834255</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.034814312476618</v>
+        <v>1.036063474651206</v>
       </c>
       <c r="J9">
-        <v>1.001359721274351</v>
+        <v>1.00425992061565</v>
       </c>
       <c r="K9">
-        <v>1.011519008560772</v>
+        <v>1.01441019078732</v>
       </c>
       <c r="L9">
-        <v>0.9985698925976191</v>
+        <v>1.001161106180442</v>
       </c>
       <c r="M9">
-        <v>1.015939032372935</v>
+        <v>1.017227138546889</v>
       </c>
       <c r="N9">
-        <v>1.003866817762463</v>
+        <v>1.008071632276112</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.021186799809325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.022206277015857</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016114177150064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.966395020091115</v>
+        <v>0.9701618979428799</v>
       </c>
       <c r="D10">
-        <v>0.9925546273312749</v>
+        <v>0.9962753358980834</v>
       </c>
       <c r="E10">
-        <v>0.9784603835048109</v>
+        <v>0.9817490621455074</v>
       </c>
       <c r="F10">
-        <v>0.9972214521802415</v>
+        <v>0.9988592852831052</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.033018613029751</v>
+        <v>1.034596983924451</v>
       </c>
       <c r="J10">
-        <v>0.9960084261842339</v>
+        <v>0.999611499038868</v>
       </c>
       <c r="K10">
-        <v>1.007059624197481</v>
+        <v>1.010712167536585</v>
       </c>
       <c r="L10">
-        <v>0.9932297463610543</v>
+        <v>0.9964558516364443</v>
       </c>
       <c r="M10">
-        <v>1.011641056043918</v>
+        <v>1.013249166275872</v>
       </c>
       <c r="N10">
-        <v>1.001994548932296</v>
+        <v>1.006902701085903</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.017837896403652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.019110565003042</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01526971531767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9641146794179891</v>
+        <v>0.9681167908088134</v>
       </c>
       <c r="D11">
-        <v>0.9911340321683064</v>
+        <v>0.9950782532787585</v>
       </c>
       <c r="E11">
-        <v>0.9768001730261985</v>
+        <v>0.9802909448923681</v>
       </c>
       <c r="F11">
-        <v>0.9976228113938667</v>
+        <v>0.9993490282148061</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.032726214357274</v>
+        <v>1.034395041977256</v>
       </c>
       <c r="J11">
-        <v>0.995060469099902</v>
+        <v>0.9988788478122193</v>
       </c>
       <c r="K11">
-        <v>1.006225107147321</v>
+        <v>1.010093587259097</v>
       </c>
       <c r="L11">
-        <v>0.9921732796788321</v>
+        <v>0.9955943688452814</v>
       </c>
       <c r="M11">
-        <v>1.012589697684209</v>
+        <v>1.014283231360489</v>
       </c>
       <c r="N11">
-        <v>1.001753978317967</v>
+        <v>1.007000625533944</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.019034882410491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.020374449241911</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.015191637859357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9638130338711317</v>
+        <v>0.967833070758052</v>
       </c>
       <c r="D12">
-        <v>0.9910444758336796</v>
+        <v>0.9949994095278684</v>
       </c>
       <c r="E12">
-        <v>0.9766784778147566</v>
+        <v>0.9801809616032102</v>
       </c>
       <c r="F12">
-        <v>0.9987635334510292</v>
+        <v>1.000487325922728</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.032812155385298</v>
+        <v>1.034481098393704</v>
       </c>
       <c r="J12">
-        <v>0.9952319707265297</v>
+        <v>0.9990640614021482</v>
       </c>
       <c r="K12">
-        <v>1.006345284560151</v>
+        <v>1.010223044154106</v>
       </c>
       <c r="L12">
-        <v>0.9922665487675041</v>
+        <v>0.9956979747884107</v>
       </c>
       <c r="M12">
-        <v>1.013914460609264</v>
+        <v>1.015605195488813</v>
       </c>
       <c r="N12">
-        <v>1.001891821440883</v>
+        <v>1.007211336984311</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.020415485275765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.021752368161485</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.015268762365803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9650044765599044</v>
+        <v>0.9688593672172654</v>
       </c>
       <c r="D13">
-        <v>0.9919640715370086</v>
+        <v>0.9957532436824911</v>
       </c>
       <c r="E13">
-        <v>0.9777211784377738</v>
+        <v>0.9810744617967682</v>
       </c>
       <c r="F13">
-        <v>1.000564663404789</v>
+        <v>1.002209958353951</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.033195445963163</v>
+        <v>1.034789208877364</v>
       </c>
       <c r="J13">
-        <v>0.9962691254420034</v>
+        <v>0.9999450477347656</v>
       </c>
       <c r="K13">
-        <v>1.007202306279541</v>
+        <v>1.010917950537715</v>
       </c>
       <c r="L13">
-        <v>0.9932425084543988</v>
+        <v>0.9965281675512905</v>
       </c>
       <c r="M13">
-        <v>1.015637055765081</v>
+        <v>1.017251049114751</v>
       </c>
       <c r="N13">
-        <v>1.002326723208827</v>
+        <v>1.007481375248677</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.022058633281949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.023334506011419</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01546584943572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9664917516825299</v>
+        <v>0.9701531622011424</v>
       </c>
       <c r="D14">
-        <v>0.9930480673133035</v>
+        <v>0.9966461141101028</v>
       </c>
       <c r="E14">
-        <v>0.9789586932581107</v>
+        <v>0.9821394092691497</v>
       </c>
       <c r="F14">
-        <v>1.002090356396736</v>
+        <v>1.003648986881035</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.033591070813447</v>
+        <v>1.035100435676098</v>
       </c>
       <c r="J14">
-        <v>0.9973659048372701</v>
+        <v>1.000860080591234</v>
       </c>
       <c r="K14">
-        <v>1.008119431366217</v>
+        <v>1.011648610490939</v>
       </c>
       <c r="L14">
-        <v>0.9943061407180818</v>
+        <v>0.9974236205651407</v>
       </c>
       <c r="M14">
-        <v>1.016989876298422</v>
+        <v>1.018519294184557</v>
       </c>
       <c r="N14">
-        <v>1.002757937049491</v>
+        <v>1.007693972419929</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.023303610646798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.024512459850468</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.015655085027527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9671921518362644</v>
+        <v>0.9707674416952895</v>
       </c>
       <c r="D15">
-        <v>0.9935416730260622</v>
+        <v>0.9970551968524671</v>
       </c>
       <c r="E15">
-        <v>0.9795258194822228</v>
+        <v>0.9826304575222924</v>
       </c>
       <c r="F15">
-        <v>1.00265653568842</v>
+        <v>1.004177699911523</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.03375650196996</v>
+        <v>1.035229270481478</v>
       </c>
       <c r="J15">
-        <v>0.9978366706279345</v>
+        <v>1.001250205139961</v>
       </c>
       <c r="K15">
-        <v>1.00851380901804</v>
+        <v>1.011960624560663</v>
       </c>
       <c r="L15">
-        <v>0.9947703201596986</v>
+        <v>0.9978137475915578</v>
       </c>
       <c r="M15">
-        <v>1.01745687686554</v>
+        <v>1.018949766551695</v>
       </c>
       <c r="N15">
-        <v>1.00293275381272</v>
+        <v>1.007766019511755</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.023710695050625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.024890641102707</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.015730493880228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9705227206767192</v>
+        <v>0.9737296515982468</v>
       </c>
       <c r="D16">
-        <v>0.9958077322455985</v>
+        <v>0.9989590822427892</v>
       </c>
       <c r="E16">
-        <v>0.9821527530233449</v>
+        <v>0.9849360472272352</v>
       </c>
       <c r="F16">
-        <v>1.004734341962501</v>
+        <v>1.006099377057372</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.034443269902929</v>
+        <v>1.035763163364961</v>
       </c>
       <c r="J16">
-        <v>0.9998760172290971</v>
+        <v>1.002945508266702</v>
       </c>
       <c r="K16">
-        <v>1.010216192509235</v>
+        <v>1.013310423157292</v>
       </c>
       <c r="L16">
-        <v>0.9968142488699353</v>
+        <v>0.9995452235851111</v>
       </c>
       <c r="M16">
-        <v>1.018982211208761</v>
+        <v>1.020323015001512</v>
       </c>
       <c r="N16">
-        <v>1.00363087433388</v>
+        <v>1.008012591024111</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.024877132905716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.025936904895195</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.016028609277642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9723108299748111</v>
+        <v>0.9753496349248683</v>
       </c>
       <c r="D17">
-        <v>0.996987983121154</v>
+        <v>0.9999713674013023</v>
       </c>
       <c r="E17">
-        <v>0.9835320890893411</v>
+        <v>0.9861708119849308</v>
       </c>
       <c r="F17">
-        <v>1.005537713734155</v>
+        <v>1.006833360150351</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.034763827830813</v>
+        <v>1.036014807217775</v>
       </c>
       <c r="J17">
-        <v>1.000876280509744</v>
+        <v>1.003789196195126</v>
       </c>
       <c r="K17">
-        <v>1.011049030818563</v>
+        <v>1.013979898669387</v>
       </c>
       <c r="L17">
-        <v>0.9978351558469228</v>
+        <v>1.000425741072382</v>
       </c>
       <c r="M17">
-        <v>1.019449338495361</v>
+        <v>1.020722627331232</v>
       </c>
       <c r="N17">
-        <v>1.00394385661336</v>
+        <v>1.008123998419722</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.025115729570605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.026122239945576</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.016162130087632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9728898073599246</v>
+        <v>0.9759017993309193</v>
       </c>
       <c r="D18">
-        <v>0.9973047140589393</v>
+        <v>1.000261027598014</v>
       </c>
       <c r="E18">
-        <v>0.9839182464046256</v>
+        <v>0.9865370637422503</v>
       </c>
       <c r="F18">
-        <v>1.005141852112909</v>
+        <v>1.006430514846262</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.034783684484053</v>
+        <v>1.036026748820344</v>
       </c>
       <c r="J18">
-        <v>1.001017630971516</v>
+        <v>1.003907171588914</v>
       </c>
       <c r="K18">
-        <v>1.011170134401182</v>
+        <v>1.01407525688629</v>
       </c>
       <c r="L18">
-        <v>0.9980204684594106</v>
+        <v>1.000592303263785</v>
       </c>
       <c r="M18">
-        <v>1.018872416844141</v>
+        <v>1.020139164797774</v>
       </c>
       <c r="N18">
-        <v>1.003933612629857</v>
+        <v>1.008072595159329</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.024418537854977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.025420091700014</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01615196071271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9723344993440128</v>
+        <v>0.9754394444796629</v>
       </c>
       <c r="D19">
-        <v>0.9968156087282756</v>
+        <v>0.9998668459999237</v>
       </c>
       <c r="E19">
-        <v>0.9833720262440809</v>
+        <v>0.9860761334709208</v>
       </c>
       <c r="F19">
-        <v>1.003544170119093</v>
+        <v>1.0048797703539</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.034524682969448</v>
+        <v>1.035812277777314</v>
       </c>
       <c r="J19">
-        <v>1.000344004082724</v>
+        <v>1.003323276312317</v>
       </c>
       <c r="K19">
-        <v>1.010624696309474</v>
+        <v>1.013623322478371</v>
       </c>
       <c r="L19">
-        <v>0.9974179663145037</v>
+        <v>1.000073758400605</v>
       </c>
       <c r="M19">
-        <v>1.017237789107533</v>
+        <v>1.018550706567476</v>
       </c>
       <c r="N19">
-        <v>1.003623957288313</v>
+        <v>1.007846449446002</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.022794810508949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.023833218668429</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.016005666007623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9686119419295757</v>
+        <v>0.9721430729540806</v>
       </c>
       <c r="D20">
-        <v>0.9940796249268603</v>
+        <v>0.997565166395821</v>
       </c>
       <c r="E20">
-        <v>0.9802258515175206</v>
+        <v>0.9833081284201219</v>
       </c>
       <c r="F20">
-        <v>0.9987076655244965</v>
+        <v>1.000242533034696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.033492578150708</v>
+        <v>1.034970815120937</v>
       </c>
       <c r="J20">
-        <v>0.9974088410338715</v>
+        <v>1.000791736625218</v>
       </c>
       <c r="K20">
-        <v>1.008227382013323</v>
+        <v>1.011650964959052</v>
       </c>
       <c r="L20">
-        <v>0.9946255515358614</v>
+        <v>0.9976509746697851</v>
       </c>
       <c r="M20">
-        <v>1.012773277203621</v>
+        <v>1.014281119131714</v>
       </c>
       <c r="N20">
-        <v>1.002485171662724</v>
+        <v>1.007128458419618</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.018723135773092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.019916465983687</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.015483029230911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9618959576455496</v>
+        <v>0.9662284888878346</v>
       </c>
       <c r="D21">
-        <v>0.9894385684814042</v>
+        <v>0.9937090871510674</v>
       </c>
       <c r="E21">
-        <v>0.9748574536036917</v>
+        <v>0.9786459439621863</v>
       </c>
       <c r="F21">
-        <v>0.9938701818613347</v>
+        <v>0.9957578807911592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.03201461279021</v>
+        <v>1.033830272303416</v>
       </c>
       <c r="J21">
-        <v>0.9930779365640579</v>
+        <v>0.9972093338239474</v>
       </c>
       <c r="K21">
-        <v>1.004622831546407</v>
+        <v>1.008810631059327</v>
       </c>
       <c r="L21">
-        <v>0.9903313458652615</v>
+        <v>0.9940434923147091</v>
       </c>
       <c r="M21">
-        <v>1.008968623616721</v>
+        <v>1.010820069586932</v>
       </c>
       <c r="N21">
-        <v>1.000952602915088</v>
+        <v>1.006557832475345</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.015670012618616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.017135359195127</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.014830674876785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9576446797936614</v>
+        <v>0.9624920770776101</v>
       </c>
       <c r="D22">
-        <v>0.9865146111371836</v>
+        <v>0.9912880468499785</v>
       </c>
       <c r="E22">
-        <v>0.9714777336283444</v>
+        <v>0.9757194448270663</v>
       </c>
       <c r="F22">
-        <v>0.9909448001050984</v>
+        <v>0.9930588730309198</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.031079138139606</v>
+        <v>1.033110919474058</v>
       </c>
       <c r="J22">
-        <v>0.9903634062753012</v>
+        <v>0.9949716001135073</v>
       </c>
       <c r="K22">
-        <v>1.002358034864864</v>
+        <v>1.007034087608504</v>
       </c>
       <c r="L22">
-        <v>0.9876362184149371</v>
+        <v>0.9917877532959097</v>
       </c>
       <c r="M22">
-        <v>1.006697802202214</v>
+        <v>1.008769100580211</v>
       </c>
       <c r="N22">
-        <v>0.999996389814503</v>
+        <v>1.006203555532341</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.013872742431771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.015512097797715</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014423919753213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9599102142193827</v>
+        <v>0.9644602274719295</v>
       </c>
       <c r="D23">
-        <v>0.988072244918455</v>
+        <v>0.9925587781905488</v>
       </c>
       <c r="E23">
-        <v>0.9732778735959191</v>
+        <v>0.9772566218708589</v>
       </c>
       <c r="F23">
-        <v>0.9925021301305066</v>
+        <v>0.9944854887823871</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.031578717309782</v>
+        <v>1.033486526275691</v>
       </c>
       <c r="J23">
-        <v>0.9918102084801457</v>
+        <v>0.9961427982063317</v>
       </c>
       <c r="K23">
-        <v>1.003565367584905</v>
+        <v>1.007962835612583</v>
       </c>
       <c r="L23">
-        <v>0.9890723775468031</v>
+        <v>0.9929688896722971</v>
       </c>
       <c r="M23">
-        <v>1.007907305519823</v>
+        <v>1.009851621502864</v>
       </c>
       <c r="N23">
-        <v>1.000506087433159</v>
+        <v>1.006345539846033</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.014830019667618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.016368871079775</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.014635161138084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.968574409457911</v>
+        <v>0.9721135885552941</v>
       </c>
       <c r="D24">
-        <v>0.9940405952214941</v>
+        <v>0.9975345169745631</v>
       </c>
       <c r="E24">
-        <v>0.9801819374311029</v>
+        <v>0.9832716910981556</v>
       </c>
       <c r="F24">
-        <v>0.9984923980265682</v>
+        <v>1.000032014617172</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.033465833315721</v>
+        <v>1.034948104538132</v>
       </c>
       <c r="J24">
-        <v>0.9973382324106809</v>
+        <v>1.000729034043412</v>
       </c>
       <c r="K24">
-        <v>1.008173179224115</v>
+        <v>1.011605068039207</v>
       </c>
       <c r="L24">
-        <v>0.9945662544791164</v>
+        <v>0.9975990842869601</v>
       </c>
       <c r="M24">
-        <v>1.012546040672463</v>
+        <v>1.014058568066284</v>
       </c>
       <c r="N24">
-        <v>1.002452392960373</v>
+        <v>1.007101252005921</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.018501394416099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.019698495413025</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.015466863522613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9781467039177717</v>
+        <v>0.9808823191304</v>
       </c>
       <c r="D25">
-        <v>1.000652969088496</v>
+        <v>1.003298747024673</v>
       </c>
       <c r="E25">
-        <v>0.9878460864496822</v>
+        <v>0.9902394093454765</v>
       </c>
       <c r="F25">
-        <v>1.005175961180872</v>
+        <v>1.006363229237864</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.035500295978014</v>
+        <v>1.036625792228714</v>
       </c>
       <c r="J25">
-        <v>1.003432584029552</v>
+        <v>1.006070654460235</v>
       </c>
       <c r="K25">
-        <v>1.013241157002739</v>
+        <v>1.015846069121617</v>
       </c>
       <c r="L25">
-        <v>1.000636052621672</v>
+        <v>1.002991159514922</v>
       </c>
       <c r="M25">
-        <v>1.017694454898324</v>
+        <v>1.018863560888305</v>
       </c>
       <c r="N25">
-        <v>1.004595284611381</v>
+        <v>1.008542718335476</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.022576136183208</v>
+        <v>1.023501428336909</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.016442180505857</v>
       </c>
     </row>
   </sheetData>
